--- a/artfynd/A 37438-2021.xlsx
+++ b/artfynd/A 37438-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95504946</v>
+        <v>95503476</v>
       </c>
       <c r="B2" t="n">
         <v>96334</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>591993.6470620979</v>
+        <v>591590.0879378035</v>
       </c>
       <c r="R2" t="n">
-        <v>6428571.749772112</v>
+        <v>6428792.104066458</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>5 + 3</t>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -814,7 +814,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>95504253</v>
+        <v>95504946</v>
       </c>
       <c r="B3" t="n">
         <v>96334</v>
@@ -849,7 +849,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -870,13 +870,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>592082.7741049519</v>
+        <v>591993.6470620979</v>
       </c>
       <c r="R3" t="n">
-        <v>6428554.711398588</v>
+        <v>6428571.749772112</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3 blommor</t>
+          <t>5 + 3</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -948,7 +948,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95504230</v>
+        <v>95504253</v>
       </c>
       <c r="B4" t="n">
         <v>96334</v>
@@ -993,7 +993,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>592088.6524614135</v>
+        <v>592082.7741049519</v>
       </c>
       <c r="R4" t="n">
-        <v>6428553.25590604</v>
+        <v>6428554.711398588</v>
       </c>
       <c r="S4" t="n">
         <v>100</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>1 blomma</t>
+          <t>3 blommor</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1082,7 +1082,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95501720</v>
+        <v>95504230</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1138,13 +1138,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>591666.8969997162</v>
+        <v>592088.6524614135</v>
       </c>
       <c r="R5" t="n">
-        <v>6428779.017716779</v>
+        <v>6428553.25590604</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>3 blommor</t>
+          <t>1 blomma</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1213,6 +1213,140 @@
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>95501720</v>
+      </c>
+      <c r="B6" t="n">
+        <v>96334</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>A37438, Troserum, V Ed, Sm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>591666.8969997162</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6428779.017716779</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Västra Ed</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2021-08-15</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2021-08-15</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>3 blommor</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
